--- a/Beton/data/testResults.xlsx
+++ b/Beton/data/testResults.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="18">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -90,7 +90,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="244">
+  <fills count="248">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1265,6 +1265,26 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
@@ -1320,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1458,6 +1478,8 @@
     <xf numFmtId="0" fontId="0" fillId="239" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="241" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="243" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="245" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="247" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2369,7 +2391,7 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s" s="134">
+      <c r="B2" t="s" s="137">
         <v>3</v>
       </c>
     </row>
@@ -2377,7 +2399,7 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="135">
+      <c r="B3" t="s" s="138">
         <v>3</v>
       </c>
     </row>

--- a/Beton/data/testResults.xlsx
+++ b/Beton/data/testResults.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="null" r:id="rId5" sheetId="2"/>
+    <sheet name="iPhone-6 Raj" r:id="rId6" sheetId="3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Test Parameters</t>
   </si>
@@ -92,12 +93,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,4 +449,33 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Beton/data/testResults.xlsx
+++ b/Beton/data/testResults.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="null" r:id="rId5" sheetId="2"/>
+    <sheet name="iPhone-6 Raj" sheetId="3" r:id="rId1"/>
+    <sheet name="Galaxy S5 SM-G900A Avner" r:id="rId5" sheetId="4"/>
+    <sheet name="iPhone-6 Brian" r:id="rId6" sheetId="5"/>
+    <sheet name="iPhone-6 Avner" r:id="rId7" sheetId="6"/>
+    <sheet name="null" r:id="rId8" sheetId="7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="8">
   <si>
     <t>Test Parameters</t>
-  </si>
-  <si>
-    <t>Avner 3.01</t>
   </si>
   <si>
     <t>testSignIn, SATeam@perfectomobile.com, SATeam123, Hi, SA!</t>
@@ -37,13 +37,19 @@
   <si>
     <t>FAIL</t>
   </si>
+  <si>
+    <t>Avner 3.02</t>
+  </si>
+  <si>
+    <t>Avner 3.03</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,7 +58,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -60,23 +66,133 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -92,18 +208,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -150,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,18 +528,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="15">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
@@ -417,31 +749,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
